--- a/results/pvalue_SIDER_rare_indication_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_indication_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.018</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.737</t>
+          <t>5.897</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.757</t>
+          <t>5.854</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-13.634</t>
+          <t>-16.793</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-13.618</t>
+          <t>-18.322</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.593</t>
+          <t>0.266</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.868</t>
+          <t>3.895</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.821</t>
+          <t>3.848</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-7.525</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-9.524</t>
+          <t>-9.531</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>1.291</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
